--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitra/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66883022-166B-7242-9EF0-8C2117621EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F8BA42-DEC3-F84C-8743-88F877864A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14540" yWindow="5460" windowWidth="26740" windowHeight="15500" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
+    <workbookView xWindow="140" yWindow="1120" windowWidth="26740" windowHeight="15500" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -410,11 +409,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1200</v>
+        <v>370</v>
       </c>
       <c r="B2">
         <f>$B$1/$A$1*A2</f>
-        <v>674.0625</v>
+        <v>207.83593750000003</v>
       </c>
     </row>
   </sheetData>

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitra/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F8BA42-DEC3-F84C-8743-88F877864A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B2D9D5-95AA-4340-B32A-A5B40DF02182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="1120" windowWidth="26740" windowHeight="15500" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
+    <workbookView xWindow="140" yWindow="500" windowWidth="26740" windowHeight="15460" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,11 +409,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="B2">
         <f>$B$1/$A$1*A2</f>
-        <v>207.83593750000003</v>
+        <v>235.92187500000003</v>
       </c>
     </row>
   </sheetData>

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitra/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B2D9D5-95AA-4340-B32A-A5B40DF02182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE99B02-51E4-A346-9F86-8C4EA008BDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="500" windowWidth="26740" windowHeight="15460" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
+    <workbookView xWindow="13840" yWindow="500" windowWidth="13040" windowHeight="15460" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,11 +409,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="B2">
         <f>$B$1/$A$1*A2</f>
-        <v>235.92187500000003</v>
+        <v>561.71875</v>
       </c>
     </row>
   </sheetData>

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitra/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE99B02-51E4-A346-9F86-8C4EA008BDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5375060-CA8A-FC4B-A1E8-7646186B48F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13840" yWindow="500" windowWidth="13040" windowHeight="15460" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -409,11 +409,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1000</v>
+        <v>512</v>
       </c>
       <c r="B2">
         <f>$B$1/$A$1*A2</f>
-        <v>561.71875</v>
+        <v>287.60000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitra/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5375060-CA8A-FC4B-A1E8-7646186B48F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A377C389-DD86-0545-B1CF-EAB3AC07A768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13840" yWindow="500" windowWidth="13040" windowHeight="15460" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -409,11 +409,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="B2">
         <f>$B$1/$A$1*A2</f>
-        <v>287.60000000000002</v>
+        <v>143.80000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitra/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A377C389-DD86-0545-B1CF-EAB3AC07A768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DC4BF4-06F6-8349-8D1D-F6BC18501702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13840" yWindow="500" windowWidth="13040" windowHeight="15460" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -409,11 +409,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>256</v>
+        <v>450</v>
       </c>
       <c r="B2">
         <f>$B$1/$A$1*A2</f>
-        <v>143.80000000000001</v>
+        <v>252.77343750000003</v>
       </c>
     </row>
   </sheetData>

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitra/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DC4BF4-06F6-8349-8D1D-F6BC18501702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A38B5C-43DB-E54F-8B81-0DAC87004031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13840" yWindow="500" windowWidth="13040" windowHeight="15460" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
+    <workbookView xWindow="11920" yWindow="500" windowWidth="14960" windowHeight="15460" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,7 +391,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -409,11 +409,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>450</v>
+        <v>352</v>
       </c>
       <c r="B2">
         <f>$B$1/$A$1*A2</f>
-        <v>252.77343750000003</v>
+        <v>197.72500000000002</v>
       </c>
     </row>
   </sheetData>

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitra/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A38B5C-43DB-E54F-8B81-0DAC87004031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4315E313-9E34-FA48-845E-A37E5D1C82A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11920" yWindow="500" windowWidth="14960" windowHeight="15460" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -391,7 +391,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -409,11 +409,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>352</v>
+        <v>3024</v>
       </c>
       <c r="B2">
         <f>$B$1/$A$1*A2</f>
-        <v>197.72500000000002</v>
+        <v>1698.6375</v>
       </c>
     </row>
   </sheetData>

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitra/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4315E313-9E34-FA48-845E-A37E5D1C82A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7F1FF4-1D8F-BE41-BF17-0B3ECC737969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11920" yWindow="500" windowWidth="14960" windowHeight="15460" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -409,11 +409,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>3024</v>
+        <v>1255</v>
       </c>
       <c r="B2">
         <f>$B$1/$A$1*A2</f>
-        <v>1698.6375</v>
+        <v>704.95703125</v>
       </c>
     </row>
   </sheetData>

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitra/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7F1FF4-1D8F-BE41-BF17-0B3ECC737969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FBA52E-DB63-8F49-B758-366EA41154DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11920" yWindow="500" windowWidth="14960" windowHeight="15460" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -409,11 +409,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1255</v>
+        <v>1500</v>
       </c>
       <c r="B2">
         <f>$B$1/$A$1*A2</f>
-        <v>704.95703125</v>
+        <v>842.57812500000011</v>
       </c>
     </row>
   </sheetData>

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitra/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FBA52E-DB63-8F49-B758-366EA41154DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2238D2AA-CDBB-4C4F-AA20-E35DBEF8647D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11920" yWindow="500" windowWidth="14960" windowHeight="15460" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
+    <workbookView xWindow="6020" yWindow="500" windowWidth="20860" windowHeight="15460" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,12 +52,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B0F30E-3D84-5F43-92C4-C4F68DFD6FED}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -408,12 +415,21 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1500</v>
+      <c r="A2" s="1">
+        <v>1280</v>
       </c>
       <c r="B2">
         <f>$B$1/$A$1*A2</f>
-        <v>842.57812500000011</v>
+        <v>719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>B3/B1*A1</f>
+        <v>1281.7802503477051</v>
+      </c>
+      <c r="B3">
+        <v>720</v>
       </c>
     </row>
   </sheetData>

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitra/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2238D2AA-CDBB-4C4F-AA20-E35DBEF8647D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC576460-AA55-C74F-B630-F1900928990C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6020" yWindow="500" windowWidth="20860" windowHeight="15460" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
+    <workbookView xWindow="1560" yWindow="500" windowWidth="25320" windowHeight="15460" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -66,7 +69,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -74,13 +77,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,7 +453,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1280</v>
       </c>
@@ -416,20 +466,20 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1280</v>
-      </c>
-      <c r="B2">
+        <v>324</v>
+      </c>
+      <c r="B2" s="2">
         <f>$B$1/$A$1*A2</f>
-        <v>719</v>
+        <v>181.99687500000002</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <f>B3/B1*A1</f>
-        <v>1281.7802503477051</v>
-      </c>
-      <c r="B3">
-        <v>720</v>
+        <v>2025.9248956884562</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1138</v>
       </c>
     </row>
   </sheetData>

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitra/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC576460-AA55-C74F-B630-F1900928990C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1263F1CD-FB7E-1B4D-953B-EDC0F37FCB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="500" windowWidth="25320" windowHeight="15460" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -128,8 +128,8 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -466,11 +466,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>324</v>
+        <v>560</v>
       </c>
       <c r="B2" s="2">
         <f>$B$1/$A$1*A2</f>
-        <v>181.99687500000002</v>
+        <v>314.5625</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitra/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1263F1CD-FB7E-1B4D-953B-EDC0F37FCB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377E5C57-98C2-174E-B55D-A4700BEB70D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="500" windowWidth="25320" windowHeight="15460" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="25320" windowHeight="15400" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,11 +466,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>560</v>
+        <v>190</v>
       </c>
       <c r="B2" s="2">
         <f>$B$1/$A$1*A2</f>
-        <v>314.5625</v>
+        <v>106.72656250000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitra/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377E5C57-98C2-174E-B55D-A4700BEB70D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F38A106-EF2E-1344-8B81-BE314C47E2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="25320" windowHeight="15400" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="25320" windowHeight="15360" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,11 +466,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>190</v>
+        <v>800</v>
       </c>
       <c r="B2" s="2">
         <f>$B$1/$A$1*A2</f>
-        <v>106.72656250000001</v>
+        <v>449.37500000000006</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitra/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F38A106-EF2E-1344-8B81-BE314C47E2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EE855F-6E5A-BC45-9429-4ED1FA9F12A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="500" windowWidth="25320" windowHeight="15360" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
+    <workbookView xWindow="260" yWindow="500" windowWidth="25320" windowHeight="15360" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,11 +466,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="B2" s="2">
         <f>$B$1/$A$1*A2</f>
-        <v>449.37500000000006</v>
+        <v>1291.953125</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitra/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EE855F-6E5A-BC45-9429-4ED1FA9F12A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCA11C8-E6AE-0C40-90A1-6E7709D83CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="500" windowWidth="25320" windowHeight="15360" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
+    <workbookView xWindow="260" yWindow="500" windowWidth="25320" windowHeight="15320" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,11 +466,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="B2" s="2">
         <f>$B$1/$A$1*A2</f>
-        <v>1291.953125</v>
+        <v>1123.4375</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitra/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCA11C8-E6AE-0C40-90A1-6E7709D83CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F2508E-6312-DF40-B5C2-3271E0A237AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="500" windowWidth="25320" windowHeight="15320" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
+    <workbookView xWindow="260" yWindow="500" windowWidth="25320" windowHeight="14880" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,11 +466,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>2000</v>
+        <v>203</v>
       </c>
       <c r="B2" s="2">
         <f>$B$1/$A$1*A2</f>
-        <v>1123.4375</v>
+        <v>114.02890625000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitra/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F2508E-6312-DF40-B5C2-3271E0A237AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1A1AB4-4407-7A40-AED4-50FDFA4FA762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="500" windowWidth="25320" windowHeight="14880" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -466,11 +466,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>203</v>
+        <v>2000</v>
       </c>
       <c r="B2" s="2">
         <f>$B$1/$A$1*A2</f>
-        <v>114.02890625000001</v>
+        <v>1123.4375</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitra/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1A1AB4-4407-7A40-AED4-50FDFA4FA762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB596A6B-AFCF-074F-A4E6-99A6076167ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="500" windowWidth="25320" windowHeight="14880" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,11 +466,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>2000</v>
+        <v>512</v>
       </c>
       <c r="B2" s="2">
         <f>$B$1/$A$1*A2</f>
-        <v>1123.4375</v>
+        <v>287.60000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitra/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB596A6B-AFCF-074F-A4E6-99A6076167ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54571F74-F9EB-EB45-9EFD-FE4F724965C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="500" windowWidth="25320" windowHeight="14880" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,11 +466,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>512</v>
+        <v>4160</v>
       </c>
       <c r="B2" s="2">
         <f>$B$1/$A$1*A2</f>
-        <v>287.60000000000002</v>
+        <v>2336.75</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitra/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54571F74-F9EB-EB45-9EFD-FE4F724965C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF08A9F-1793-DC4B-8F80-980A90BED0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="500" windowWidth="25320" windowHeight="14880" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,20 +466,20 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>4160</v>
+        <v>361</v>
       </c>
       <c r="B2" s="2">
         <f>$B$1/$A$1*A2</f>
-        <v>2336.75</v>
+        <v>202.78046875000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f>B3/B1*A1</f>
-        <v>2025.9248956884562</v>
+        <v>356.05006954102919</v>
       </c>
       <c r="B3" s="4">
-        <v>1138</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitra/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF08A9F-1793-DC4B-8F80-980A90BED0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7D49B5-2DE8-FA4A-A8A4-AF92BB5BDCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="500" windowWidth="25320" windowHeight="14880" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
+    <workbookView xWindow="1760" yWindow="500" windowWidth="25320" windowHeight="14880" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,10 +476,10 @@
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f>B3/B1*A1</f>
-        <v>356.05006954102919</v>
+        <v>534.07510431154378</v>
       </c>
       <c r="B3" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitra/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7D49B5-2DE8-FA4A-A8A4-AF92BB5BDCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDB2281-45FB-9544-9BBD-B5C0EC38DB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="500" windowWidth="25320" windowHeight="14880" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
+    <workbookView xWindow="1560" yWindow="500" windowWidth="25320" windowHeight="14880" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,10 +476,10 @@
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f>B3/B1*A1</f>
-        <v>534.07510431154378</v>
+        <v>1958.2753824756605</v>
       </c>
       <c r="B3" s="4">
-        <v>300</v>
+        <v>1100</v>
       </c>
     </row>
   </sheetData>

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitra/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDB2281-45FB-9544-9BBD-B5C0EC38DB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6ED7E8-2D78-334F-BB63-CE76846CE51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="500" windowWidth="25320" windowHeight="14880" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,11 +466,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>361</v>
+        <v>1000</v>
       </c>
       <c r="B2" s="2">
         <f>$B$1/$A$1*A2</f>
-        <v>202.78046875000001</v>
+        <v>561.71875</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitra/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6ED7E8-2D78-334F-BB63-CE76846CE51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAB2C1C-D72B-8B4F-A1B8-3DD4F6719F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="500" windowWidth="25320" windowHeight="14880" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -466,11 +466,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="B2" s="2">
         <f>$B$1/$A$1*A2</f>
-        <v>561.71875</v>
+        <v>674.0625</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitra/git/slovenskivedci/images/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtap/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAB2C1C-D72B-8B4F-A1B8-3DD4F6719F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27586266-8C66-324F-B927-65E1794FEA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="500" windowWidth="25320" windowHeight="14880" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
+    <workbookView xWindow="1560" yWindow="760" windowWidth="25320" windowHeight="14880" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -466,11 +464,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1200</v>
+        <v>907</v>
       </c>
       <c r="B2" s="2">
         <f>$B$1/$A$1*A2</f>
-        <v>674.0625</v>
+        <v>509.47890625000002</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtap/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27586266-8C66-324F-B927-65E1794FEA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB26D97-8659-BC46-B04D-E852E1D068AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="760" windowWidth="25320" windowHeight="14880" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -464,11 +464,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>907</v>
+        <v>2480</v>
       </c>
       <c r="B2" s="2">
         <f>$B$1/$A$1*A2</f>
-        <v>509.47890625000002</v>
+        <v>1393.0625</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtap/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB26D97-8659-BC46-B04D-E852E1D068AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585AE9DD-4312-FE4A-BE61-A57CA7DE8E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="760" windowWidth="25320" windowHeight="14880" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -464,11 +464,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>2480</v>
+        <v>1024</v>
       </c>
       <c r="B2" s="2">
         <f>$B$1/$A$1*A2</f>
-        <v>1393.0625</v>
+        <v>575.20000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtap/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585AE9DD-4312-FE4A-BE61-A57CA7DE8E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AD8529-4E27-814C-941B-11BD68E5DB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="760" windowWidth="25320" windowHeight="14880" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -464,11 +464,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1024</v>
+        <v>1140</v>
       </c>
       <c r="B2" s="2">
         <f>$B$1/$A$1*A2</f>
-        <v>575.20000000000005</v>
+        <v>640.359375</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtap/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AD8529-4E27-814C-941B-11BD68E5DB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD2CEB7-BCFA-E04B-A6FC-CCB3F7555033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="760" windowWidth="25320" windowHeight="14880" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,11 +464,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1140</v>
+        <v>1307</v>
       </c>
       <c r="B2" s="2">
         <f>$B$1/$A$1*A2</f>
-        <v>640.359375</v>
+        <v>734.16640625000002</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtap/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD2CEB7-BCFA-E04B-A6FC-CCB3F7555033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2E9331-2B01-8E4B-92DB-DD768A4245E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="760" windowWidth="25320" windowHeight="14880" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,20 +464,20 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1307</v>
+        <v>2326</v>
       </c>
       <c r="B2" s="2">
         <f>$B$1/$A$1*A2</f>
-        <v>734.16640625000002</v>
+        <v>1306.5578125000002</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f>B3/B1*A1</f>
-        <v>1958.2753824756605</v>
+        <v>2243.1154381084839</v>
       </c>
       <c r="B3" s="4">
-        <v>1100</v>
+        <v>1260</v>
       </c>
     </row>
   </sheetData>

--- a/images/images_sizing(AutoRecovered).xlsx
+++ b/images/images_sizing(AutoRecovered).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtap/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2E9331-2B01-8E4B-92DB-DD768A4245E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64626D03-7A05-D747-912F-649E8BB6A789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="760" windowWidth="25320" windowHeight="14880" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,20 +464,20 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>2326</v>
+        <v>2000</v>
       </c>
       <c r="B2" s="2">
         <f>$B$1/$A$1*A2</f>
-        <v>1306.5578125000002</v>
+        <v>1123.4375</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f>B3/B1*A1</f>
-        <v>2243.1154381084839</v>
+        <v>745.92489568845622</v>
       </c>
       <c r="B3" s="4">
-        <v>1260</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
